--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/web-app/bcf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/KS/web-app/BCF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9618A176-88C4-A042-A1E2-870339B4CC84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8AF39BA-2567-544D-8F02-49433D7879BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="25880" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="25880" windowHeight="11360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="gal_per_barrel">About!$A$63</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="423">
   <si>
     <t>(from physical units to million Btu)</t>
   </si>
@@ -2456,6 +2456,9 @@
   </si>
   <si>
     <t>GREET1 2019</t>
+  </si>
+  <si>
+    <t>Kansas</t>
   </si>
 </sst>
 </file>
@@ -3879,10 +3882,10 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4315,21 +4318,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C1" s="209">
-        <v>44307</v>
+      <c r="B1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1" s="208">
+        <v>44374</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11321,44 +11329,44 @@
     </row>
     <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="208" t="s">
+      <c r="B78" s="209" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="208"/>
-      <c r="D78" s="208"/>
-      <c r="E78" s="208"/>
-      <c r="F78" s="208"/>
-      <c r="G78" s="208"/>
-      <c r="H78" s="208"/>
-      <c r="I78" s="208"/>
-      <c r="J78" s="208"/>
-      <c r="K78" s="208"/>
-      <c r="L78" s="208"/>
-      <c r="M78" s="208"/>
-      <c r="N78" s="208"/>
-      <c r="O78" s="208"/>
-      <c r="P78" s="208"/>
-      <c r="Q78" s="208"/>
-      <c r="R78" s="208"/>
-      <c r="S78" s="208"/>
-      <c r="T78" s="208"/>
-      <c r="U78" s="208"/>
-      <c r="V78" s="208"/>
-      <c r="W78" s="208"/>
-      <c r="X78" s="208"/>
-      <c r="Y78" s="208"/>
-      <c r="Z78" s="208"/>
-      <c r="AA78" s="208"/>
-      <c r="AB78" s="208"/>
-      <c r="AC78" s="208"/>
-      <c r="AD78" s="208"/>
-      <c r="AE78" s="208"/>
-      <c r="AF78" s="208"/>
-      <c r="AG78" s="208"/>
-      <c r="AH78" s="208"/>
-      <c r="AI78" s="208"/>
-      <c r="AJ78" s="208"/>
-      <c r="AK78" s="208"/>
+      <c r="C78" s="209"/>
+      <c r="D78" s="209"/>
+      <c r="E78" s="209"/>
+      <c r="F78" s="209"/>
+      <c r="G78" s="209"/>
+      <c r="H78" s="209"/>
+      <c r="I78" s="209"/>
+      <c r="J78" s="209"/>
+      <c r="K78" s="209"/>
+      <c r="L78" s="209"/>
+      <c r="M78" s="209"/>
+      <c r="N78" s="209"/>
+      <c r="O78" s="209"/>
+      <c r="P78" s="209"/>
+      <c r="Q78" s="209"/>
+      <c r="R78" s="209"/>
+      <c r="S78" s="209"/>
+      <c r="T78" s="209"/>
+      <c r="U78" s="209"/>
+      <c r="V78" s="209"/>
+      <c r="W78" s="209"/>
+      <c r="X78" s="209"/>
+      <c r="Y78" s="209"/>
+      <c r="Z78" s="209"/>
+      <c r="AA78" s="209"/>
+      <c r="AB78" s="209"/>
+      <c r="AC78" s="209"/>
+      <c r="AD78" s="209"/>
+      <c r="AE78" s="209"/>
+      <c r="AF78" s="209"/>
+      <c r="AG78" s="209"/>
+      <c r="AH78" s="209"/>
+      <c r="AI78" s="209"/>
+      <c r="AJ78" s="209"/>
+      <c r="AK78" s="209"/>
     </row>
     <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="8" t="s">
@@ -11413,21 +11421,21 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.1640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="22" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="22" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="22" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="22" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.1640625" style="22"/>
-    <col min="11" max="11" width="10.5" style="22" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9.1640625" style="22"/>
     <col min="15" max="15" width="12.83203125" style="22" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="9.1640625" style="22"/>
-    <col min="19" max="19" width="10.5" style="22" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" style="22" customWidth="1"/>
     <col min="20" max="22" width="9.1640625" style="22"/>
     <col min="23" max="23" width="10.6640625" style="22" customWidth="1"/>
     <col min="24" max="16384" width="9.1640625" style="22"/>
@@ -15900,7 +15908,9 @@
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="U13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:AI22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -18705,140 +18715,140 @@
         <v>367</v>
       </c>
       <c r="B22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="C22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="D22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="E22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="F22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="G22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="H22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="I22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="J22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="K22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="L22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="M22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="N22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="O22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="P22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="Q22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="R22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="S22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="T22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="U22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="V22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="W22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="X22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="Y22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="Z22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AA22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AB22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AC22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AD22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AE22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AF22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AG22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AH22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AI22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
     </row>
   </sheetData>
@@ -18853,7 +18863,9 @@
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="U10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:AI22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21658,140 +21670,140 @@
         <v>367</v>
       </c>
       <c r="B22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="C22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="D22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="E22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="F22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="G22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="H22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="I22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="J22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="K22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="L22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="M22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="N22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="O22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="P22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="Q22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="R22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="S22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="T22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="U22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="V22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="W22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="X22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="Y22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="Z22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AA22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AB22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AC22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AD22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AE22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AF22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AG22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AH22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AI22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/KS/web-app/BCF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/KS/web-app/BCF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8AF39BA-2567-544D-8F02-49433D7879BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0386809E-07A0-0141-B884-57AD8B3BE6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="25880" windowHeight="11360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="BCF-BpEIEOU" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="gal_per_barrel">About!$A$63</definedName>
+    <definedName name="gal_per_barrel">About!$A$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="425">
   <si>
     <t>(from physical units to million Btu)</t>
   </si>
@@ -2200,9 +2200,6 @@
     <t>miles per gallon</t>
   </si>
   <si>
-    <t>million barrels</t>
-  </si>
-  <si>
     <t>Small Fuel Output Units</t>
   </si>
   <si>
@@ -2362,9 +2359,6 @@
     <t>crude oil, heavy fuel oil</t>
   </si>
   <si>
-    <t>barrels</t>
-  </si>
-  <si>
     <t>LPG/propane/butane</t>
   </si>
   <si>
@@ -2456,6 +2450,18 @@
   </si>
   <si>
     <t>GREET1 2019</t>
+  </si>
+  <si>
+    <t>Barrels of oil has been used across petroleum fuels to provide a more standardized unit, instead of converting from</t>
+  </si>
+  <si>
+    <t>BTU to barrel of each equivalent fuel.</t>
+  </si>
+  <si>
+    <t>million barrels of oil</t>
+  </si>
+  <si>
+    <t>barrels of oil</t>
   </si>
   <si>
     <t>Kansas</t>
@@ -4316,10 +4322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4334,10 +4340,10 @@
         <v>321</v>
       </c>
       <c r="B1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C1" s="208">
-        <v>44374</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4352,7 +4358,7 @@
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4363,7 +4369,7 @@
         <v>45</v>
       </c>
       <c r="B6" s="196" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C6" s="202"/>
     </row>
@@ -4379,7 +4385,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4394,7 +4400,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="196" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C13" s="202"/>
     </row>
@@ -4410,7 +4416,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -4442,237 +4448,248 @@
     <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="198" t="s">
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="198" t="s">
         <v>331</v>
       </c>
-      <c r="B37" s="199"/>
-    </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="203" t="s">
+      <c r="B40" s="199"/>
+    </row>
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="203" t="s">
+        <v>349</v>
+      </c>
+      <c r="B41" s="203" t="s">
         <v>350</v>
       </c>
-      <c r="B38" s="203" t="s">
+      <c r="C41" s="204" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="201" t="s">
+        <v>392</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="197" t="s">
+        <v>324</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="197" t="s">
+        <v>366</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A45" s="201" t="s">
+        <v>387</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="201" t="s">
+        <v>389</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="201" t="s">
+        <v>356</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C47" s="204" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="201"/>
+    </row>
+    <row r="49" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="198" t="s">
+        <v>336</v>
+      </c>
+      <c r="B49" s="199"/>
+    </row>
+    <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="203" t="s">
+        <v>349</v>
+      </c>
+      <c r="B50" s="203" t="s">
         <v>351</v>
       </c>
-      <c r="C38" s="204" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="201" t="s">
-        <v>394</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="197" t="s">
+    </row>
+    <row r="51" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="201" t="s">
+        <v>392</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="197" t="s">
         <v>324</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="197" t="s">
-        <v>367</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A42" s="201" t="s">
+      <c r="B52" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="197" t="s">
+        <v>366</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A54" s="201" t="s">
+        <v>391</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="201" t="s">
         <v>388</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="201" t="s">
-        <v>391</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="201" t="s">
-        <v>357</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C44" s="204" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="201"/>
-    </row>
-    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="198" t="s">
-        <v>337</v>
-      </c>
-      <c r="B46" s="199"/>
-    </row>
-    <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="203" t="s">
-        <v>350</v>
-      </c>
-      <c r="B47" s="203" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A48" s="201" t="s">
-        <v>394</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="197" t="s">
-        <v>324</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="197" t="s">
-        <v>367</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A51" s="201" t="s">
-        <v>393</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="201" t="s">
-        <v>389</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="201" t="s">
+      <c r="B55" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="201" t="s">
+        <v>354</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="198" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="198" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="198" t="s">
+        <v>364</v>
+      </c>
+    </row>
     <row r="62" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="196" t="s">
+      <c r="A62" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="196" t="s">
         <v>316</v>
       </c>
-      <c r="B62" s="202"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="200">
+      <c r="B65" s="202"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="200">
         <v>42</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B66" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
         <f>3.142*10^6</f>
         <v>3142000</v>
       </c>
-      <c r="B64" t="s">
-        <v>340</v>
+      <c r="B67" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -4686,11 +4703,11 @@
   <dimension ref="A1:AK85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C32" sqref="C32"/>
       <selection pane="topRight" activeCell="C32" sqref="C32"/>
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4702,7 +4719,7 @@
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C1" s="16">
         <v>2017</v>
@@ -4813,7 +4830,7 @@
         <v>121</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -4824,7 +4841,7 @@
         <v>120</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -4837,7 +4854,7 @@
         <v>118</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
@@ -4849,7 +4866,7 @@
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
@@ -4974,7 +4991,7 @@
         <v>2</v>
       </c>
       <c r="AK12" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -7023,7 +7040,7 @@
         <v>96</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C33" s="14">
         <v>5.0566430000000002</v>
@@ -7246,10 +7263,10 @@
     </row>
     <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C35" s="14">
         <v>5.2222799999999996</v>
@@ -7359,10 +7376,10 @@
     </row>
     <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C36" s="14">
         <v>5.2222799999999996</v>
@@ -11385,22 +11402,22 @@
     </row>
     <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -12032,7 +12049,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="68" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B21" s="49">
         <v>129487.84757606639</v>
@@ -12146,7 +12163,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="70" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B25" s="49">
         <v>118237.434842673</v>
@@ -12800,7 +12817,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="48" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B47" s="49">
         <v>112060.7</v>
@@ -13557,7 +13574,7 @@
         <v>0.94242199100000001</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="48" t="s">
         <v>208</v>
       </c>
@@ -13587,7 +13604,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="48" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B75" s="49">
         <v>28385750.368920002</v>
@@ -13780,7 +13797,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="71" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B82" s="49">
         <v>15929000</v>
@@ -14038,7 +14055,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="118" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B92" s="119">
         <v>152370.90134048002</v>
@@ -14072,7 +14089,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="123" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B93" s="124">
         <v>144230</v>
@@ -15760,27 +15777,27 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="B158" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="C158" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="B158" s="22" t="s">
+      <c r="D158" s="22" t="s">
         <v>416</v>
       </c>
-      <c r="C158" s="22" t="s">
+      <c r="E158" s="22" t="s">
         <v>417</v>
       </c>
-      <c r="D158" s="22" t="s">
+      <c r="F158" s="22" t="s">
         <v>418</v>
-      </c>
-      <c r="E158" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="F158" s="22" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B159" s="22">
         <v>1</v>
@@ -15800,7 +15817,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="22" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B160" s="22">
         <v>1E-3</v>
@@ -15820,7 +15837,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="22" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B161" s="22">
         <v>9.9999999999999995E-7</v>
@@ -15840,7 +15857,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B162" s="22">
         <v>3.2808398950131233E-3</v>
@@ -15860,7 +15877,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="22" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B163" s="22">
         <v>6.2137273664980671E-7</v>
@@ -15908,8 +15925,8 @@
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView topLeftCell="U13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:AI22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15921,7 +15938,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B1" s="5">
         <v>2017</v>
@@ -16028,142 +16045,142 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="C2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="D2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="E2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="F2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="G2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="H2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="I2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="J2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="K2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="L2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="M2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="N2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="O2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="P2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="Q2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="R2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="S2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="T2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="U2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="V2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="W2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="X2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="Y2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="Z2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AA2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AB2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AC2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AD2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AE2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AF2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AG2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AH2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AI2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
     </row>
@@ -16451,7 +16468,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" ref="B5:AI5" si="0">10^12</f>
@@ -16592,7 +16609,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -16699,7 +16716,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -16806,7 +16823,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -17057,140 +17074,140 @@
         <v>326</v>
       </c>
       <c r="B10" s="5">
-        <f>'AEO Table 73'!C32*10^12</f>
-        <v>5056643000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="C10" s="5">
-        <f>'AEO Table 73'!D32*10^12</f>
-        <v>5055260000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="D10" s="5">
-        <f>'AEO Table 73'!E32*10^12</f>
-        <v>5055925000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="E10" s="5">
-        <f>'AEO Table 73'!F32*10^12</f>
-        <v>5056270000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="F10" s="5">
-        <f>'AEO Table 73'!G32*10^12</f>
-        <v>5055361000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="G10" s="5">
-        <f>'AEO Table 73'!H32*10^12</f>
-        <v>5053336000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="H10" s="5">
-        <f>'AEO Table 73'!I32*10^12</f>
-        <v>5050816000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="I10" s="5">
-        <f>'AEO Table 73'!J32*10^12</f>
-        <v>5050002000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="J10" s="5">
-        <f>'AEO Table 73'!K32*10^12</f>
-        <v>5049479000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="K10" s="5">
-        <f>'AEO Table 73'!L32*10^12</f>
-        <v>5049067000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="L10" s="5">
-        <f>'AEO Table 73'!M32*10^12</f>
-        <v>5048620000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="M10" s="5">
-        <f>'AEO Table 73'!N32*10^12</f>
-        <v>5048186000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="N10" s="5">
-        <f>'AEO Table 73'!O32*10^12</f>
-        <v>5047752000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="O10" s="5">
-        <f>'AEO Table 73'!P32*10^12</f>
-        <v>5047827000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="P10" s="5">
-        <f>'AEO Table 73'!Q32*10^12</f>
-        <v>5047112000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Q10" s="5">
-        <f>'AEO Table 73'!R32*10^12</f>
-        <v>5046712000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="R10" s="5">
-        <f>'AEO Table 73'!S32*10^12</f>
-        <v>5046464000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="S10" s="5">
-        <f>'AEO Table 73'!T32*10^12</f>
-        <v>5045877000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="T10" s="5">
-        <f>'AEO Table 73'!U32*10^12</f>
-        <v>5045186000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="U10" s="5">
-        <f>'AEO Table 73'!V32*10^12</f>
-        <v>5044430000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="V10" s="5">
-        <f>'AEO Table 73'!W32*10^12</f>
-        <v>5043581000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="W10" s="5">
-        <f>'AEO Table 73'!X32*10^12</f>
-        <v>5042755000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="X10" s="5">
-        <f>'AEO Table 73'!Y32*10^12</f>
-        <v>5041688000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Y10" s="5">
-        <f>'AEO Table 73'!Z32*10^12</f>
-        <v>5040498000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Z10" s="5">
-        <f>'AEO Table 73'!AA32*10^12</f>
-        <v>5039160000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AA10" s="5">
-        <f>'AEO Table 73'!AB32*10^12</f>
-        <v>5037867000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AB10" s="5">
-        <f>'AEO Table 73'!AC32*10^12</f>
-        <v>5036224000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AC10" s="5">
-        <f>'AEO Table 73'!AD32*10^12</f>
-        <v>5034602000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AD10" s="5">
-        <f>'AEO Table 73'!AE32*10^12</f>
-        <v>5032873000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AE10" s="5">
-        <f>'AEO Table 73'!AF32*10^12</f>
-        <v>5030945000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AF10" s="5">
-        <f>'AEO Table 73'!AG32*10^12</f>
-        <v>5028548000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AG10" s="5">
-        <f>'AEO Table 73'!AH32*10^12</f>
-        <v>5025918000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AH10" s="5">
-        <f>'AEO Table 73'!AI32*10^12</f>
-        <v>5023038000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AI10" s="5">
-        <f>'AEO Table 73'!AJ32*10^12</f>
-        <v>5023036000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
@@ -17198,140 +17215,140 @@
         <v>327</v>
       </c>
       <c r="B11" s="5">
-        <f>'AEO Table 73'!C19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="C11" s="5">
-        <f>'AEO Table 73'!D19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="D11" s="5">
-        <f>'AEO Table 73'!E19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="E11" s="5">
-        <f>'AEO Table 73'!F19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="F11" s="5">
-        <f>'AEO Table 73'!G19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="G11" s="5">
-        <f>'AEO Table 73'!H19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="H11" s="5">
-        <f>'AEO Table 73'!I19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="I11" s="5">
-        <f>'AEO Table 73'!J19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="J11" s="5">
-        <f>'AEO Table 73'!K19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="K11" s="5">
-        <f>'AEO Table 73'!L19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="L11" s="5">
-        <f>'AEO Table 73'!M19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="M11" s="5">
-        <f>'AEO Table 73'!N19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="N11" s="5">
-        <f>'AEO Table 73'!O19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="O11" s="5">
-        <f>'AEO Table 73'!P19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="P11" s="5">
-        <f>'AEO Table 73'!Q19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Q11" s="5">
-        <f>'AEO Table 73'!R19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="R11" s="5">
-        <f>'AEO Table 73'!S19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="S11" s="5">
-        <f>'AEO Table 73'!T19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="T11" s="5">
-        <f>'AEO Table 73'!U19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="U11" s="5">
-        <f>'AEO Table 73'!V19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="V11" s="5">
-        <f>'AEO Table 73'!W19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="W11" s="5">
-        <f>'AEO Table 73'!X19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="X11" s="5">
-        <f>'AEO Table 73'!Y19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Y11" s="5">
-        <f>'AEO Table 73'!Z19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Z11" s="5">
-        <f>'AEO Table 73'!AA19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AA11" s="5">
-        <f>'AEO Table 73'!AB19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AB11" s="5">
-        <f>'AEO Table 73'!AC19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AC11" s="5">
-        <f>'AEO Table 73'!AD19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AD11" s="5">
-        <f>'AEO Table 73'!AE19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AE11" s="5">
-        <f>'AEO Table 73'!AF19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AF11" s="5">
-        <f>'AEO Table 73'!AG19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AG11" s="5">
-        <f>'AEO Table 73'!AH19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AH11" s="5">
-        <f>'AEO Table 73'!AI19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AI11" s="5">
-        <f>'AEO Table 73'!AJ19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
@@ -17339,140 +17356,140 @@
         <v>328</v>
       </c>
       <c r="B12" s="5">
-        <f>'AEO Table 73'!C29*10^12</f>
-        <v>3997220000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="C12" s="5">
-        <f>'AEO Table 73'!D29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="D12" s="5">
-        <f>'AEO Table 73'!E29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="E12" s="5">
-        <f>'AEO Table 73'!F29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="F12" s="5">
-        <f>'AEO Table 73'!G29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="G12" s="5">
-        <f>'AEO Table 73'!H29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="H12" s="5">
-        <f>'AEO Table 73'!I29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="I12" s="5">
-        <f>'AEO Table 73'!J29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="J12" s="5">
-        <f>'AEO Table 73'!K29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="K12" s="5">
-        <f>'AEO Table 73'!L29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="L12" s="5">
-        <f>'AEO Table 73'!M29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="M12" s="5">
-        <f>'AEO Table 73'!N29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="N12" s="5">
-        <f>'AEO Table 73'!O29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="O12" s="5">
-        <f>'AEO Table 73'!P29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="P12" s="5">
-        <f>'AEO Table 73'!Q29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Q12" s="5">
-        <f>'AEO Table 73'!R29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="R12" s="5">
-        <f>'AEO Table 73'!S29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="S12" s="5">
-        <f>'AEO Table 73'!T29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="T12" s="5">
-        <f>'AEO Table 73'!U29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="U12" s="5">
-        <f>'AEO Table 73'!V29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="V12" s="5">
-        <f>'AEO Table 73'!W29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="W12" s="5">
-        <f>'AEO Table 73'!X29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="X12" s="5">
-        <f>'AEO Table 73'!Y29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Y12" s="5">
-        <f>'AEO Table 73'!Z29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Z12" s="5">
-        <f>'AEO Table 73'!AA29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AA12" s="5">
-        <f>'AEO Table 73'!AB29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AB12" s="5">
-        <f>'AEO Table 73'!AC29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AC12" s="5">
-        <f>'AEO Table 73'!AD29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AD12" s="5">
-        <f>'AEO Table 73'!AE29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AE12" s="5">
-        <f>'AEO Table 73'!AF29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AF12" s="5">
-        <f>'AEO Table 73'!AG29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AG12" s="5">
-        <f>'AEO Table 73'!AH29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AH12" s="5">
-        <f>'AEO Table 73'!AI29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AI12" s="5">
-        <f>'AEO Table 73'!AJ29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
@@ -17480,427 +17497,427 @@
         <v>329</v>
       </c>
       <c r="B13" s="5">
-        <f>'AEO Table 73'!C18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="C13" s="5">
-        <f>'AEO Table 73'!D18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="D13" s="5">
-        <f>'AEO Table 73'!E18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="E13" s="5">
-        <f>'AEO Table 73'!F18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="F13" s="5">
-        <f>'AEO Table 73'!G18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="G13" s="5">
-        <f>'AEO Table 73'!H18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="H13" s="5">
-        <f>'AEO Table 73'!I18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="I13" s="5">
-        <f>'AEO Table 73'!J18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="J13" s="5">
-        <f>'AEO Table 73'!K18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="K13" s="5">
-        <f>'AEO Table 73'!L18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="L13" s="5">
-        <f>'AEO Table 73'!M18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="M13" s="5">
-        <f>'AEO Table 73'!N18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="N13" s="5">
-        <f>'AEO Table 73'!O18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="O13" s="5">
-        <f>'AEO Table 73'!P18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="P13" s="5">
-        <f>'AEO Table 73'!Q18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Q13" s="5">
-        <f>'AEO Table 73'!R18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="R13" s="5">
-        <f>'AEO Table 73'!S18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="S13" s="5">
-        <f>'AEO Table 73'!T18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="T13" s="5">
-        <f>'AEO Table 73'!U18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="U13" s="5">
-        <f>'AEO Table 73'!V18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="V13" s="5">
-        <f>'AEO Table 73'!W18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="W13" s="5">
-        <f>'AEO Table 73'!X18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="X13" s="5">
-        <f>'AEO Table 73'!Y18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Y13" s="5">
-        <f>'AEO Table 73'!Z18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Z13" s="5">
-        <f>'AEO Table 73'!AA18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AA13" s="5">
-        <f>'AEO Table 73'!AB18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AB13" s="5">
-        <f>'AEO Table 73'!AC18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AC13" s="5">
-        <f>'AEO Table 73'!AD18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AD13" s="5">
-        <f>'AEO Table 73'!AE18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AE13" s="5">
-        <f>'AEO Table 73'!AF18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AF13" s="5">
-        <f>'AEO Table 73'!AG18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AG13" s="5">
-        <f>'AEO Table 73'!AH18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AH13" s="5">
-        <f>'AEO Table 73'!AI18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AI13" s="5">
-        <f>'AEO Table 73'!AJ18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B14" s="5">
-        <f>'AEO Table 73'!C30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="C14" s="5">
-        <f>'AEO Table 73'!D30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="D14" s="5">
-        <f>'AEO Table 73'!E30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="E14" s="5">
-        <f>'AEO Table 73'!F30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="F14" s="5">
-        <f>'AEO Table 73'!G30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="G14" s="5">
-        <f>'AEO Table 73'!H30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="H14" s="5">
-        <f>'AEO Table 73'!I30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="I14" s="5">
-        <f>'AEO Table 73'!J30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="J14" s="5">
-        <f>'AEO Table 73'!K30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="K14" s="5">
-        <f>'AEO Table 73'!L30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="L14" s="5">
-        <f>'AEO Table 73'!M30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="M14" s="5">
-        <f>'AEO Table 73'!N30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="N14" s="5">
-        <f>'AEO Table 73'!O30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="O14" s="5">
-        <f>'AEO Table 73'!P30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="P14" s="5">
-        <f>'AEO Table 73'!Q30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Q14" s="5">
-        <f>'AEO Table 73'!R30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="R14" s="5">
-        <f>'AEO Table 73'!S30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="S14" s="5">
-        <f>'AEO Table 73'!T30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="T14" s="5">
-        <f>'AEO Table 73'!U30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="U14" s="5">
-        <f>'AEO Table 73'!V30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="V14" s="5">
-        <f>'AEO Table 73'!W30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="W14" s="5">
-        <f>'AEO Table 73'!X30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="X14" s="5">
-        <f>'AEO Table 73'!Y30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Y14" s="5">
-        <f>'AEO Table 73'!Z30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Z14" s="5">
-        <f>'AEO Table 73'!AA30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AA14" s="5">
-        <f>'AEO Table 73'!AB30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AB14" s="5">
-        <f>'AEO Table 73'!AC30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AC14" s="5">
-        <f>'AEO Table 73'!AD30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AD14" s="5">
-        <f>'AEO Table 73'!AE30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AE14" s="5">
-        <f>'AEO Table 73'!AF30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AF14" s="5">
-        <f>'AEO Table 73'!AG30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AG14" s="5">
-        <f>'AEO Table 73'!AH30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AH14" s="5">
-        <f>'AEO Table 73'!AI30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AI14" s="5">
-        <f>'AEO Table 73'!AJ30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="C15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="D15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="E15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="F15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="G15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="H15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="I15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="J15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="K15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="L15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="M15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="N15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="O15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="P15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="Q15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="R15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="S15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="T15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="U15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="V15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="W15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="X15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="Y15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="Z15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AA15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AB15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AC15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AD15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AE15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AF15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AG15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AH15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AI15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
@@ -18148,289 +18165,289 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B18" s="5">
-        <f>'AEO Table 73'!C48*10^12</f>
-        <v>5723000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="C18" s="5">
-        <f>'AEO Table 73'!D48*10^12</f>
-        <v>5719936000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="D18" s="5">
-        <f>'AEO Table 73'!E48*10^12</f>
-        <v>5709374000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="E18" s="5">
-        <f>'AEO Table 73'!F48*10^12</f>
-        <v>5702021000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="F18" s="5">
-        <f>'AEO Table 73'!G48*10^12</f>
-        <v>5699036000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="G18" s="5">
-        <f>'AEO Table 73'!H48*10^12</f>
-        <v>5702903000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="H18" s="5">
-        <f>'AEO Table 73'!I48*10^12</f>
-        <v>5701469000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="I18" s="5">
-        <f>'AEO Table 73'!J48*10^12</f>
-        <v>5697845000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="J18" s="5">
-        <f>'AEO Table 73'!K48*10^12</f>
-        <v>5696569000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="K18" s="5">
-        <f>'AEO Table 73'!L48*10^12</f>
-        <v>5695571000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="L18" s="5">
-        <f>'AEO Table 73'!M48*10^12</f>
-        <v>5691691000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="M18" s="5">
-        <f>'AEO Table 73'!N48*10^12</f>
-        <v>5689583000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="N18" s="5">
-        <f>'AEO Table 73'!O48*10^12</f>
-        <v>5687317000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="O18" s="5">
-        <f>'AEO Table 73'!P48*10^12</f>
-        <v>5686403000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="P18" s="5">
-        <f>'AEO Table 73'!Q48*10^12</f>
-        <v>5685931000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Q18" s="5">
-        <f>'AEO Table 73'!R48*10^12</f>
-        <v>5686055000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="R18" s="5">
-        <f>'AEO Table 73'!S48*10^12</f>
-        <v>5686259000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="S18" s="5">
-        <f>'AEO Table 73'!T48*10^12</f>
-        <v>5685382000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="T18" s="5">
-        <f>'AEO Table 73'!U48*10^12</f>
-        <v>5685214000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="U18" s="5">
-        <f>'AEO Table 73'!V48*10^12</f>
-        <v>5685896000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="V18" s="5">
-        <f>'AEO Table 73'!W48*10^12</f>
-        <v>5686885000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="W18" s="5">
-        <f>'AEO Table 73'!X48*10^12</f>
-        <v>5687922000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="X18" s="5">
-        <f>'AEO Table 73'!Y48*10^12</f>
-        <v>5690170000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Y18" s="5">
-        <f>'AEO Table 73'!Z48*10^12</f>
-        <v>5690964000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Z18" s="5">
-        <f>'AEO Table 73'!AA48*10^12</f>
-        <v>5689439000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AA18" s="5">
-        <f>'AEO Table 73'!AB48*10^12</f>
-        <v>5688754000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AB18" s="5">
-        <f>'AEO Table 73'!AC48*10^12</f>
-        <v>5686469000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AC18" s="5">
-        <f>'AEO Table 73'!AD48*10^12</f>
-        <v>5684444000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AD18" s="5">
-        <f>'AEO Table 73'!AE48*10^12</f>
-        <v>5683516000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AE18" s="5">
-        <f>'AEO Table 73'!AF48*10^12</f>
-        <v>5682888000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AF18" s="5">
-        <f>'AEO Table 73'!AG48*10^12</f>
-        <v>5681393000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AG18" s="5">
-        <f>'AEO Table 73'!AH48*10^12</f>
-        <v>5679274000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AH18" s="5">
-        <f>'AEO Table 73'!AI48*10^12</f>
-        <v>5678185000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AI18" s="5">
-        <f>'AEO Table 73'!AJ48*10^12</f>
-        <v>5676202000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B19" s="5">
-        <f>'AEO Table 73'!C41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="C19" s="5">
-        <f>'AEO Table 73'!D41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="D19" s="5">
-        <f>'AEO Table 73'!E41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="E19" s="5">
-        <f>'AEO Table 73'!F41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="F19" s="5">
-        <f>'AEO Table 73'!G41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="G19" s="5">
-        <f>'AEO Table 73'!H41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="H19" s="5">
-        <f>'AEO Table 73'!I41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="I19" s="5">
-        <f>'AEO Table 73'!J41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="J19" s="5">
-        <f>'AEO Table 73'!K41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="K19" s="5">
-        <f>'AEO Table 73'!L41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="L19" s="5">
-        <f>'AEO Table 73'!M41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="M19" s="5">
-        <f>'AEO Table 73'!N41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="N19" s="5">
-        <f>'AEO Table 73'!O41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="O19" s="5">
-        <f>'AEO Table 73'!P41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="P19" s="5">
-        <f>'AEO Table 73'!Q41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Q19" s="5">
-        <f>'AEO Table 73'!R41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="R19" s="5">
-        <f>'AEO Table 73'!S41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="S19" s="5">
-        <f>'AEO Table 73'!T41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="T19" s="5">
-        <f>'AEO Table 73'!U41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="U19" s="5">
-        <f>'AEO Table 73'!V41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="V19" s="5">
-        <f>'AEO Table 73'!W41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="W19" s="5">
-        <f>'AEO Table 73'!X41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="X19" s="5">
-        <f>'AEO Table 73'!Y41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Y19" s="5">
-        <f>'AEO Table 73'!Z41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Z19" s="5">
-        <f>'AEO Table 73'!AA41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AA19" s="5">
-        <f>'AEO Table 73'!AB41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AB19" s="5">
-        <f>'AEO Table 73'!AC41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AC19" s="5">
-        <f>'AEO Table 73'!AD41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AD19" s="5">
-        <f>'AEO Table 73'!AE41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AE19" s="5">
-        <f>'AEO Table 73'!AF41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AF19" s="5">
-        <f>'AEO Table 73'!AG41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AG19" s="5">
-        <f>'AEO Table 73'!AH41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AH19" s="5">
-        <f>'AEO Table 73'!AI41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AI19" s="5">
-        <f>'AEO Table 73'!AJ41*10^12</f>
-        <v>6287000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B20" s="6">
         <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
@@ -18571,7 +18588,7 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B21" s="5">
         <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
@@ -18712,7 +18729,7 @@
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B22" s="207">
         <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
@@ -18863,8 +18880,8 @@
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView topLeftCell="U10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:AI22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18876,7 +18893,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B1" s="5">
         <v>2017</v>
@@ -18983,142 +19000,142 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="C2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="D2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="E2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="F2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="G2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="H2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="I2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="J2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="K2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="L2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="M2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="N2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="O2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="P2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="Q2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="R2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="S2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="T2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="U2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="V2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="W2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="X2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="Y2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="Z2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AA2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AB2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AC2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AD2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AE2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AF2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AG2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AH2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AI2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
     </row>
@@ -19406,7 +19423,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" ref="B5:AI5" si="0">10^6</f>
@@ -19547,7 +19564,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -19654,7 +19671,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -19761,7 +19778,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -20573,7 +20590,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B14" s="5">
         <f>'AEO Table 73'!C30*10^6/gal_per_barrel</f>
@@ -20714,148 +20731,148 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="C15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="D15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="E15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="F15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="G15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="H15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="I15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="J15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="K15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="L15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="M15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="N15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="O15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="P15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="Q15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="R15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="S15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="T15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="U15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="V15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="W15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="X15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="Y15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="Z15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AA15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AB15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AC15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AD15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AE15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AF15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AG15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AH15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AI15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
@@ -21103,289 +21120,289 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B18" s="5">
-        <f>'AEO Table 73'!C48*10^6</f>
-        <v>5723000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="C18" s="5">
-        <f>'AEO Table 73'!D48*10^6</f>
-        <v>5719936</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="D18" s="5">
-        <f>'AEO Table 73'!E48*10^6</f>
-        <v>5709374</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="E18" s="5">
-        <f>'AEO Table 73'!F48*10^6</f>
-        <v>5702021</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="F18" s="5">
-        <f>'AEO Table 73'!G48*10^6</f>
-        <v>5699036</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="G18" s="5">
-        <f>'AEO Table 73'!H48*10^6</f>
-        <v>5702903</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="H18" s="5">
-        <f>'AEO Table 73'!I48*10^6</f>
-        <v>5701469</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="I18" s="5">
-        <f>'AEO Table 73'!J48*10^6</f>
-        <v>5697845</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="J18" s="5">
-        <f>'AEO Table 73'!K48*10^6</f>
-        <v>5696569</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="K18" s="5">
-        <f>'AEO Table 73'!L48*10^6</f>
-        <v>5695571</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="L18" s="5">
-        <f>'AEO Table 73'!M48*10^6</f>
-        <v>5691691</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="M18" s="5">
-        <f>'AEO Table 73'!N48*10^6</f>
-        <v>5689583</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="N18" s="5">
-        <f>'AEO Table 73'!O48*10^6</f>
-        <v>5687317</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="O18" s="5">
-        <f>'AEO Table 73'!P48*10^6</f>
-        <v>5686403</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="P18" s="5">
-        <f>'AEO Table 73'!Q48*10^6</f>
-        <v>5685931</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="Q18" s="5">
-        <f>'AEO Table 73'!R48*10^6</f>
-        <v>5686055</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="R18" s="5">
-        <f>'AEO Table 73'!S48*10^6</f>
-        <v>5686259</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="S18" s="5">
-        <f>'AEO Table 73'!T48*10^6</f>
-        <v>5685382</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="T18" s="5">
-        <f>'AEO Table 73'!U48*10^6</f>
-        <v>5685214</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="U18" s="5">
-        <f>'AEO Table 73'!V48*10^6</f>
-        <v>5685896</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="V18" s="5">
-        <f>'AEO Table 73'!W48*10^6</f>
-        <v>5686885</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="W18" s="5">
-        <f>'AEO Table 73'!X48*10^6</f>
-        <v>5687922</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="X18" s="5">
-        <f>'AEO Table 73'!Y48*10^6</f>
-        <v>5690170</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="Y18" s="5">
-        <f>'AEO Table 73'!Z48*10^6</f>
-        <v>5690964</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="Z18" s="5">
-        <f>'AEO Table 73'!AA48*10^6</f>
-        <v>5689439</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="AA18" s="5">
-        <f>'AEO Table 73'!AB48*10^6</f>
-        <v>5688754</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="AB18" s="5">
-        <f>'AEO Table 73'!AC48*10^6</f>
-        <v>5686469</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="AC18" s="5">
-        <f>'AEO Table 73'!AD48*10^6</f>
-        <v>5684444</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="AD18" s="5">
-        <f>'AEO Table 73'!AE48*10^6</f>
-        <v>5683516</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="AE18" s="5">
-        <f>'AEO Table 73'!AF48*10^6</f>
-        <v>5682888</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="AF18" s="5">
-        <f>'AEO Table 73'!AG48*10^6</f>
-        <v>5681393</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="AG18" s="5">
-        <f>'AEO Table 73'!AH48*10^6</f>
-        <v>5679274</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="AH18" s="5">
-        <f>'AEO Table 73'!AI48*10^6</f>
-        <v>5678185</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="AI18" s="5">
-        <f>'AEO Table 73'!AJ48*10^6</f>
-        <v>5676202</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B19" s="5">
-        <f>'AEO Table 73'!C41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="C19" s="5">
-        <f>'AEO Table 73'!D41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="D19" s="5">
-        <f>'AEO Table 73'!E41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="E19" s="5">
-        <f>'AEO Table 73'!F41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="F19" s="5">
-        <f>'AEO Table 73'!G41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="G19" s="5">
-        <f>'AEO Table 73'!H41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="H19" s="5">
-        <f>'AEO Table 73'!I41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="I19" s="5">
-        <f>'AEO Table 73'!J41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="J19" s="5">
-        <f>'AEO Table 73'!K41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="K19" s="5">
-        <f>'AEO Table 73'!L41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="L19" s="5">
-        <f>'AEO Table 73'!M41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="M19" s="5">
-        <f>'AEO Table 73'!N41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="N19" s="5">
-        <f>'AEO Table 73'!O41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="O19" s="5">
-        <f>'AEO Table 73'!P41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="P19" s="5">
-        <f>'AEO Table 73'!Q41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="Q19" s="5">
-        <f>'AEO Table 73'!R41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="R19" s="5">
-        <f>'AEO Table 73'!S41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="S19" s="5">
-        <f>'AEO Table 73'!T41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="T19" s="5">
-        <f>'AEO Table 73'!U41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="U19" s="5">
-        <f>'AEO Table 73'!V41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="V19" s="5">
-        <f>'AEO Table 73'!W41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="W19" s="5">
-        <f>'AEO Table 73'!X41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="X19" s="5">
-        <f>'AEO Table 73'!Y41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="Y19" s="5">
-        <f>'AEO Table 73'!Z41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="Z19" s="5">
-        <f>'AEO Table 73'!AA41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="AA19" s="5">
-        <f>'AEO Table 73'!AB41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="AB19" s="5">
-        <f>'AEO Table 73'!AC41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="AC19" s="5">
-        <f>'AEO Table 73'!AD41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="AD19" s="5">
-        <f>'AEO Table 73'!AE41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="AE19" s="5">
-        <f>'AEO Table 73'!AF41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="AF19" s="5">
-        <f>'AEO Table 73'!AG41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="AG19" s="5">
-        <f>'AEO Table 73'!AH41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="AH19" s="5">
-        <f>'AEO Table 73'!AI41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
       <c r="AI19" s="5">
-        <f>'AEO Table 73'!AJ41*10^6</f>
-        <v>6287000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
@@ -21526,7 +21543,7 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B21" s="5">
         <f>'GREET1 Fuel_Specs'!$D$90</f>
@@ -21667,7 +21684,7 @@
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B22" s="5">
         <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
@@ -21818,7 +21835,9 @@
   </sheetPr>
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21828,7 +21847,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B1" s="2">
         <v>2017</v>
@@ -22786,7 +22805,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -22893,7 +22912,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -23000,7 +23019,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -23123,7 +23142,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/KS/web-app/BCF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/aaggarwal/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state_3.3/web-app/bcf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0386809E-07A0-0141-B884-57AD8B3BE6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76952F9-3660-0F42-932E-7660B4B2CD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="424">
   <si>
     <t>(from physical units to million Btu)</t>
   </si>
@@ -2462,9 +2462,6 @@
   </si>
   <si>
     <t>barrels of oil</t>
-  </si>
-  <si>
-    <t>Kansas</t>
   </si>
 </sst>
 </file>
@@ -4339,9 +4336,6 @@
       <c r="A1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B1" t="s">
-        <v>424</v>
-      </c>
       <c r="C1" s="208">
         <v>44631</v>
       </c>
